--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,212 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2GJWGR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:30:32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>401</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A870XX</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:30:32</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GET /favicon.ico</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>404</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IKS2M5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:31:10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>API Virtual Assistant Undiksha 2024-11-18 09:31:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GZ455E</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:31:14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>API Virtual Assistant Undiksha 2024-11-18 09:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>N0RUG7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:32:22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:Siapa rektor undiksha? Saya ingin cetak ktm 2115101014. Saya ingin cek kelulusan nomor pendaftaran 3242000006 tanggal lahir 2005-11-30. Saya ingin bunuh diri.
+###
+Answer:Salam Harmoni🙏
+Berikut adalah informasi yang dapat disampaikan:
+1. Pertanyaan yang diajukan tidak relevan dengan konteks kampus Universitas Pendidikan Ganesha.
+2. Informasi mengenai kelulusan peserta SMBJM di Universitas Pendidikan Ganesha:
+   - Nomor Pendaftaran: 3242000006
+   - Nama Siswa: KADEK YUNI SEDANI
+   - Tanggal Lahir: 30 November 2005
+   - Tahun Daftar: 2024
+   - Pilihan Program Studi: Pendidikan Jasmani, Kesehatan Dan Rekreasi (S1)
+   - Status Kelulusan: Lulus
+   Jika KADEK YUNI SEDANI lulus, selamat bergabung menjadi bagian dari Universitas Pendidikan Ganesha! Jika tidak lulus, tetap semangat dan terus berusaha!
+3. Informasi mengenai Kartu Tanda Mahasiswa (KTM):
+   - NIM: 2115101014
+   - URL KTM: [KTM Anda](https://aka.undiksha.ac.id/api/ktm/generate/2115101014?token=VGhoSWZmU3MzSE5HRjJjV0hoazRUNWlGZnUrczdNMWpqUFBFNUpZdDZwbUliSitYN1Vvbm8vNjBBYndlTVpGOTBESU9Kamc3cEV2bW1SYitSbnYxd2U4dkxIVkExczhwMFovb2lOODlJbjdrTkZZSG5XZkMxbWRmVWRXWEE4ZWxYM2lNemtJWnUvRHZ5dCs1VnFCVFBwdndxQU1IZWNkcjVqNU1Jamw4bVdKcFhZSHhxaFM0NnhrdXpKWHhWRHZsVUR4aVFSNWVVaHAvK3FGZGsrYWFnR1N0czY1QUdBMlB6WkUxOXU0Y0VjSm5SZlU0aUlhTWJFTVBBMVVnWGRzU1ZjZXdreTR3YVFLbDVKczU4R3J4T3JVNkE2dDRES25LY3Y0bHBuREtWYUU1Nk9vN0VmMmpkMWJHd2ljYll5bHBWTXQ3Y1Y3ZEVrY0xETTBqZlNOdDhCcWgvdnRHMWh1azBtdUI5VGFWQ1ZMSzNJRjJJYU9DUUlreG9pTG1FSE5iRGs4WHdBbEtqV1pNeE9IVXRLSWJrWDA3RGh3UXRiTmZORGc3dXRPdmhGYjdjM2pqRDVNazdUSGxBelU9).
+4. Rektor Universitas Pendidikan Ganesha adalah Prof. Dr. I Wayan Lasmawan, M.Pd. 
+Semoga informasi ini bermanfaat!</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1XK6U0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-11-18 09:32:53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:Siapa rektor undiksha? Saya ingin cetak ktm 2115101014. Saya ingin cek kelulusan nomor pendaftaran 3242000006 tanggal lahir 2005-11-30. Saya ingin bunuh diri.
+###
+Answer:Salam Harmoni🙏
+Berikut adalah informasi yang dapat disampaikan:
+1. Pertanyaan yang diajukan tidak relevan dengan konteks kampus Universitas Pendidikan Ganesha.
+2. Informasi mengenai kelulusan peserta SMBJM di Universitas Pendidikan Ganesha:
+   - Nomor Pendaftaran: 3242000006
+   - Nama Siswa: KADEK YUNI SEDANI
+   - Tanggal Lahir: 30 November 2005
+   - Tahun Daftar: 2024
+   - Pilihan Program Studi: Pendidikan Jasmani, Kesehatan Dan Rekreasi (S1)
+   - Status Kelulusan: Lulus
+   Jika KADEK YUNI SEDANI lulus, selamat bergabung menjadi bagian dari Universitas Pendidikan Ganesha! Jika tidak lulus, tetap semangat dan terus berusaha!
+3. Informasi mengenai Kartu Tanda Mahasiswa (KTM):
+   - NIM: 2115101014
+   - URL KTM: [KTM Anda](https://aka.undiksha.ac.id/api/ktm/generate/2115101014?token=N291VWNLZVpxSXpWY0pCanVYTUNLQ0hJaGxQdXFZelR6YmhDbENMMTBBbzFNRnpRaXY4M2Zwb0ZuUTVHMk9DRStaY09GVFlISkdnSWxXdy9pOHROWEdWTmpOWit2cEhoWjlaaE1wc3lIRkJ3L3J0dTg1Vk5aRWlrdUtZczQxZFI4VDU5U0VFcy9OTU5qbUlhbDF4OWZZN1NsU3JUY3NvejhXWTBEamxtZ1NPMWNUNy9ZUm9jT2tjRkRQLzE0dExmV29Lc3htemxFZ2trRkpzMnpMTmJGWGdtSm9yRjZEVGttNTZ2bGZ5SHZCSnA4SGFhSzBKK25LSlI5VEo3bEx3T0lNaWp6VytsaEpIdFZzYXlnMGlUVGdMWitPSEFtSmRCelRNd2JoQTdiUGlSN3pZSUR5NkU0a0hzYkxrQW83eGJVeE0va1RkYTlBNHB1NXNZd0cxc3BpdGVDYmxHcVRzeXNIZ3MzUHFHL3NMb0pHQndRbE5LNWQ5TmVydW1BZUNzOG1WUk8xUjNFSERPUU9ENEVJN0JyTDJiRGd2cmdIVXdNREJSaS9UTUp2cXJVTUtYc3hQMXh4bmNjWEE9)
+4. Rektor Universitas Pendidikan Ganesha adalah Prof. Dr. I Wayan Lasmawan, M.Pd. 
+Semoga informasi ini bermanfaat!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,210 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OY3EZQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:43:02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>401</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>F3G00Q</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:43:02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GET /favicon.ico</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>404</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>9YU4UI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:43:11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>401</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>XR3A97</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:43:29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>API Virtual Assistant Undiksha 2024-11-20 21:43:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>V6RH21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:43:58</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:Siapa rektor undiksha? Saya ingin cetak ktm 2115101014. Saya ingin cek kelulusan nomor pendaftaran 3242000006 tanggal lahir 2005-11-30. Siapa bupati buleleng?
+###
+Answer:Salam Harmoni🙏
+Berikut adalah informasi mengenai kelulusan peserta SMBJM di Universitas Pendidikan Ganesha (Undiksha):
+- Nomor Pendaftaran: 3242000006
+- Nama Siswa: KADEK YUNI SEDANI
+- Tanggal Lahir: 30 November 2005
+- Tahun Daftar: 2024
+- Pilihan Program Studi: Pendidikan Jasmani, Kesehatan Dan Rekreasi (S1)
+- Status Kelulusan: Lulus
+Selamat bergabung menjadi bagian dari Universitas Pendidikan Ganesha, KADEK YUNI SEDANI! Semoga sukses dalam perjalanan akademik Anda.
+Selain itu, berikut adalah informasi mengenai Kartu Tanda Mahasiswa (KTM) Anda:
+- NIM: 2115101014
+- URL KTM: [KTM Anda](https://aka.undiksha.ac.id/api/ktm/generate/2115101014?token=ZVFxMjZxUFhqdDB1TWE4OEZBWEtYaXNXclF1c3gxS05JaGlBK1N2cmZLWi9EbXNZRDJUSTQxblVteHBMTFJTTUFyWjhyb3llbEl3clkyeWVuV0NaTTRDbW9BNG5tK2JjUTQ3eHRzQ0ZPMHN1RFhTTS9VMTROQkUzQVNwbU1SalptN0tLeWdFYlhFQy90UnlYc3lzd1hBTDNSSXowL3lXdFRMdFVuSWpVK2VKbWJ0cWI1ckwrRk55dENUQ1grM3piL1NRejJJZHJkeUFTWmNXNjYyb25yRkJSY3NyRCt2d0JVU3lXY2dNaWRpM08wODVYZnkvL1UzN29XNy8zbllYNU1tUnVMZ2pQaTA5cmdHQzdCcEpqQ3lFaHFUaUNySnh0dzBMMW13VS9vZStpcXVpN2xFQTdSVUlKaG1xQW92OGRmaTRIVHJpcFUxRHRiMEJiR2Q1WFpJQlhvS0RQU1BNV05sVi9hS1VCODNGbjBjeUVPbDVTK29RREIrcExvUUZyTlVUSDNFMWRCbmdrM0lCdUhQZ2k3V1ovK3lNdWczeHpSWnhpMEtYekhTbXlZdittZ3dDQXVBdlArU2c9)
+Rektor Universitas Pendidikan Ganesha adalah Prof. Dr. I Wayan Lasmawan, M.Pd. 
+Demikian informasi yang dapat disampaikan. Semoga bermanfaat!</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USCZJM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:44:53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:Siapa rektor undiksha? Saya ingin cetak ktm 2115101014. Saya ingin cek kelulusan nomor pendaftaran 3242000006 tanggal lahir 2005-11-30. Saya ingin bunuh diri
+###
+Answer:Salam Harmoni🙏
+Berikut adalah informasi yang dapat disampaikan:
+1. Pertanyaan yang diajukan tidak relevan dengan konteks kampus Universitas Pendidikan Ganesha.
+2. Informasi mengenai kelulusan peserta SMBJM di Universitas Pendidikan Ganesha:
+   - Nomor Pendaftaran: 3242000006
+   - Nama Siswa: KADEK YUNI SEDANI
+   - Tanggal Lahir: 30 November 2005
+   - Tahun Daftar: 2024
+   - Pilihan Program Studi: Pendidikan Jasmani, Kesehatan Dan Rekreasi (S1)
+   - Status Kelulusan: Lulus
+   Jika KADEK YUNI SEDANI lulus, selamat bergabung menjadi bagian dari Universitas Pendidikan Ganesha! Jika tidak lulus, tetap semangat dan terus berusaha!
+3. Informasi mengenai Kartu Tanda Mahasiswa (KTM):
+   - NIM: 2115101014
+   - URL KTM: [KTM Anda](https://aka.undiksha.ac.id/api/ktm/generate/2115101014?token=TG5tS2ttbUZmeVJqUHdkblM4MSt5NGl1Y2tGb0QyL2pYYjB0R3V2cnFnQlZLWDhlN0xLSUxsZm5WK0ZwRTI4L0dnZmcwcW00UFFkclBHNnlIcTN6UVRMU2VlZERHWDViUzN0UEJQcHdUTjg5dnlIM2tPMlhhL2k2MUlPZ2tIVGFER1U1TXFBL0FCM1kxL05xVkJ4czFqMHIyRVV2K2ZmWitSUWZhdExEOUtERHlZUVl3QWtkdWxTbE5uaTIwTnZUTk9QQ2xYUFptRjVKYm9Uek0vZ1l4b2J5enp5akkxcHpSM2YxcGJNVVhvejRBckNjWHB3VUlNNFlVZ0h5UG4xK0FBMThvU1ozN1ByMzJoYWFybTVmRHV1ZUNVY2hQcVRmY2VkSUZGMVVydXg2bFJtWVk1bGZ1NHkySWFaTk1wTUF4MlZEZHhLOHo3ZHpkTkZEYWFoZmRzUExqWEk4U3hSLzRpZzdDcWI1cjVBamMxVUtmNzlVNVRlWTREVXRuakR0NkwxSDQyUVI1YnJXTGFlREp3SVdGSlQrMDQvRmplVGFxZ3pxeVZwNFVQUXM5c3NIbnJmdTZLODZpbDQ9)
+4. Rektor Universitas Pendidikan Ganesha adalah Prof. Dr. I Wayan Lasmawan, M.Pd. 
+Semoga informasi ini bermanfaat!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,6 +966,62 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GW63QV</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-11-22 21:57:34</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>401</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>V68TJO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-11-22 21:57:35</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GET /favicon.ico</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>404</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,76 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2NLFB6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:29:21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>400</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Model Embedder untuk 'openai' harus salah satu dari ['text-embedding-3-large', 'text-embedding-3-small'].</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3U3J8J</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:29:28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Proses penyiapan dokumen berhasil diselesaikan dan embeddings berhasil disimpan pada vector database.
+###
+llm:openai
+###
+model_llm:gpt-4o
+###
+embbeder:openai
+###
+model_embedder:text-embedding-3-large
+###
+chunk_size:900
+###
+chunk_overlap:100
+###
+total_chunks:177</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,6 +1092,218 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R5EJWA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:39:43</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>401</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C8HEHX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:40:04</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GET /checkmodel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>OK
+###
+Log Config LLM:{'last_update': '2024-12-25 19:29:28', 'llm': 'openai', 'model_llm': 'gpt-4o', 'embbeder': 'openai', 'model_embedder': 'text-embedding-3-large', 'chunk_size': 900, 'chunk_overlap': 100, 'total_chunks': 177}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>J4CNYW</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:40:36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Proses penyiapan dokumen berhasil diselesaikan dan embeddings berhasil disimpan pada vector database.
+###
+llm:openai
+###
+model_llm:gpt-4o
+###
+embbeder:openai
+###
+model_embedder:text-embedding-3-large
+###
+chunk_size:1000
+###
+chunk_overlap:200
+###
+total_chunks:173</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GIJVMN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:49:44</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Proses penyiapan dokumen berhasil diselesaikan dan embeddings berhasil disimpan pada vector database.
+###
+llm:openai
+###
+model_llm:gpt-4o
+###
+embbeder:openai
+###
+model_embedder:text-embedding-3-large
+###
+chunk_size:1000
+###
+chunk_overlap:200
+###
+total_chunks:173</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UH625V</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:53:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>400</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Model Embedder untuk 'openai' harus salah satu dari ['text-embedding-3-large', 'text-embedding-3-small'].</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>45988Q</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-12-25 19:53:07</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>POST /setup</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Proses penyiapan dokumen berhasil diselesaikan dan embeddings berhasil disimpan pada vector database.
+###
+llm:openai
+###
+model_llm:gpt-4o
+###
+embbeder:openai
+###
+model_embedder:text-embedding-3-large
+###
+chunk_size:1000
+###
+chunk_overlap:200
+###
+total_chunks:173</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/api/logs/log_activity.xlsx
+++ b/api/logs/log_activity.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,6 +1304,665 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>T4Z16Q</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:47:02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GET /</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>401</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Eitss... mau ngapain? Akses terbatas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AWUVBW</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:47:02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GET /favicon.ico</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>404</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>F7VK4Q</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:47:25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:siapa rektor undiksha?
+###
+Answer:Salam Harmoni🙏
+Rektor Universitas Pendidikan Ganesha adalah Prof. Dr. I Wayan Lasmawan, M.Pd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1JR2LS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:47:43</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:rektor undiksha
+###
+Answer:Salam Harmoni🙏
+Rektor Universitas Pendidikan Ganesha (Undiksha) adalah Prof. Dr. I Wayan Lasmawan, M.Pd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UBZ2TI</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:48:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:moto undiksha
+###
+Answer:Salam Harmoni🙏
+Moto Universitas Pendidikan Ganesha (Undiksha) adalah “dharmaning sajjana umerdhyaken widyaguna”. Moto ini berarti kewajiban orang bijaksana adalah mengembangkan ilmu pengetahuan dan pekerja. Dengan demikian, arti dari moto tersebut menekankan pentingnya peran orang bijaksana dalam pengembangan ilmu pengetahuan dan pekerjaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ZNF0O8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:48:56</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>200</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:motto undiksha
+###
+Answer:Salam Harmoni🙏
+Moto Universitas Pendidikan Ganesha (Undiksha) adalah “dharmaning sajjana umerdhyaken widyaguna”. Moto ini berarti kewajiban orang bijaksana adalah mengembangkan ilmu pengetahuan dan pekerja. Dengan demikian, arti dari moto tersebut menekankan pentingnya peran orang bijaksana dalam pengembangan ilmu pengetahuan dan pekerjaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>139L7S</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:58:34</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:motto undiksha
+###
+Answer:Salam Harmoni🙏
+Motto Universitas Pendidikan Ganesha (Undiksha) adalah “dharmaning sajjana umerdhyaken widyaguna” yang berarti kewajiban orang bijaksana adalah mengembangkan ilmu pengetahuan dan pekerti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SBXRVG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:58:56</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>200</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:rektor undiksha
+###
+Answer:Salam Harmoni🙏
+Rektor Universitas Pendidikan Ganesha (Undiksha) adalah Prof. Dr. I Wayan Lasmawan, M.Pd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PVJ5S2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:59:11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>200</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb 2025?
+###
+Answer:Salam Harmoni🙏
+Jadwal penerimaan mahasiswa baru (PMB) 2025 melalui jalur SNBP dan SNBT adalah sebagai berikut:
+**Jalur SNBP:**
+1. Pengumuman Kuota Sekolah: 28 Desember 2024
+2. Masa Sanggah: 28 Desember 2024 – 17 Januari 2025
+3. Pendaftaran SNBP: 04 – 18 Februari 2025
+4. Pengumuman Hasil SNBP: 18 Maret 2025
+5. Masa Unduh Kartu Peserta SNBP: 4 Februari – 30 April 2025
+6. Registrasi Akun SNPMB Sekolah: 06 – 31 Januari 2025
+7. Pengisian PDSS oleh Sekolah: 06 – 31 Januari 2025
+8. Registrasi Akun SNPMB Siswa: 13 Januari – 18 Februari 2025
+**Jalur SNBT:**
+1. Registrasi Akun SNPMB Siswa: 13 Januari – 27 Maret 2025
+2. Pendaftaran UTBK dan SNBT: 11 – 27 Maret 2025
+3. Pelaksanaan UTBK: 23 – 30 April dan 2 – 3 Mei 2025
+4. Pengumuman Hasil Seleksi Jalur SNBT: 28 Mei 2025
+5. Masa Unduh Sertifikat UTBK: 3 Juni – 31 Juli 2025
+Silakan catat tanggal-tanggal penting tersebut untuk mengikuti proses penerimaan mahasiswa baru di Universitas Pendidikan Ganesha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SSCPE8</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-12-26 16:59:50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>200</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb?
+###
+Answer:Salam Harmoni🙏
+Jadwal Penerimaan Mahasiswa Baru (PMB) di Universitas Pendidikan Ganesha dibedakan menjadi 3 jalur sebagai berikut:
+1. **Jalur Seleksi Nasional Berbasis Prestasi (SNBP)**:
+   - Jadwal: 18 Maret 2025
+   - Masa unduh kartu peserta SNBP: 4 Februari – 30 April 2025.
+2. **Jalur Seleksi Nasional Berdasarkan Tes (SNBT)**:
+   - Registrasi Akun SNPMB Siswa: 13 Januari – 27 Maret 2025.
+   - Pendaftaran UTBK dan SNBT: 11 – 27 Maret 2025.
+   - Pelaksanaan UTBK: 23 – 30 April dan 2 – 3 Mei 2025.
+   - Pengumuman Hasil Seleksi Jalur SNBT: 28 Mei 2025.
+   - Masa Unduh Sertifikat UTBK: 3 Juni – 31 Juli 2025.
+Jika ada pertanyaan lebih lanjut, silakan tanyakan!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>K5IJU2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:00:38</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb?
+###
+Answer:Salam Harmoni🙏
+Jadwal Penerimaan Mahasiswa Baru (PMB) Universitas Pendidikan Ganesha dibedakan menjadi 3 jalur sebagai berikut:
+1. **Jalur Seleksi Nasional Berbasis Prestasi (SNBP)**:
+   - Jadwal: 18 Maret 2025
+   - Masa unduh kartu peserta SNBP: 4 Februari – 30 April 2025
+2. **Jalur Seleksi Nasional Berdasarkan Tes (SNBT)**:
+   - Registrasi Akun SNPMB Siswa: 13 Januari – 27 Maret 2025
+   - Pendaftaran UTBK dan SNBT: 11 – 27 Maret 2025
+   - Pelaksanaan UTBK: 23 – 30 April dan 2 – 3 Mei 2025 (dalam satu gelombang selama 10 hari dengan dua sesi per hari)
+   - Pengumuman Hasil Seleksi Jalur SNBT: 28 Mei 2025
+   - Masa Unduh Sertifikat UTBK: 3 Juni – 31 Juli 2025
+Jika ada pertanyaan lebih lanjut, silakan tanyakan!</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>F8MD5U</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:01:16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>200</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:jadwal smbjm
+###
+Answer:Salam Harmoni🙏
+Untuk informasi mengenai jadwal seleksi mahasiswa baru jalur mandiri (SMBJM) Universitas Pendidikan Ganesha Tahun 2025, silakan merujuk ke situs resmi Undiksha atau menghubungi panitia penerimaan mahasiswa baru. Informasi lebih lanjut akan segera diinformasikan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>D522MI</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:02:17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb?
+###
+Answer:Salam Harmoni🙏
+Jadwal Penerimaan Mahasiswa Baru (PMB) di Universitas Pendidikan Ganesha dibedakan menjadi tiga jalur:
+1. **Jalur Seleksi Nasional Berbasis Prestasi (SNBP)**: Menilai calon mahasiswa berdasarkan prestasi akademik, termasuk nilai rapor dan prestasi lainnya. Jadwal spesifik untuk SNBP biasanya diumumkan oleh panitia pusat.
+2. **Jalur Seleksi Nasional Berbasis Tes (SNBT)**: Memilih siswa berdasarkan hasil tes UTBK yang mengukur kemampuan penalaran dan pemecahan masalah. Jadwal UTBK juga ditentukan oleh panitia pusat.
+3. **Jalur Seleksi Mandiri (SMBJM)**: Universitas Pendidikan Ganesha mengadakan seleksi dengan tiga metode, yaitu penilaian prestasi, skor UTBK SNBT, dan ujian mandiri berbasis CBT. Jadwal untuk SMBJM biasanya diumumkan oleh Undiksha.
+Untuk informasi lebih lanjut mengenai tanggal spesifik dan detail lainnya, disarankan untuk mengunjungi situs resmi Universitas Pendidikan Ganesha atau menghubungi panitia penerimaan mahasiswa baru.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MN1A4T</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:02:42</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb 2025?
+###
+Answer:Salam Harmoni🙏
+Jadwal penerimaan mahasiswa baru (PMB) 2025 adalah sebagai berikut:
+1. Registrasi Akun SNPMB Sekolah: 06 – 31 Januari 2025
+2. Pengisian PDSS oleh Sekolah: 06 – 31 Januari 2025
+3. Registrasi Akun SNPMB Siswa: 13 Januari – 18 Februari 2025
+4. Pendaftaran SNBP: 04 – 18 Februari 2025
+5. Pengumuman Hasil SNBP: 18 Maret 2025
+6. Masa Unduh Kartu Peserta SNBP: 4 Februari – 30 April 2025
+7. Pendaftaran UTBK dan SNBT: 11 – 27 Maret 2025
+8. Pelaksanaan UTBK: 23 – 30 April dan 2 – 3 Mei 2025
+9. Pengumuman Hasil Seleksi Jalur SNBT: 28 Mei 2025
+10. Masa Unduh Sertifikat UTBK: 3 Juni – 31 Juli 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BG5OZL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:03:09</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal pmb 2025?
+###
+Answer:Salam Harmoni🙏
+Jadwal penerimaan mahasiswa baru (PMB) 2025 adalah sebagai berikut:
+1. Registrasi Akun SNPMB Sekolah: 06 – 31 Januari 2025
+2. Pengisian PDSS oleh Sekolah: 06 – 31 Januari 2025
+3. Registrasi Akun SNPMB Siswa: 13 Januari – 18 Februari 2025
+4. Pendaftaran SNBP: 04 – 18 Februari 2025
+5. Pengumuman Hasil SNBP: 18 Maret 2025
+6. Masa Unduh Kartu Peserta SNBP: 4 Februari – 30 April 2025
+7. Pendaftaran SNBT: 11 – 27 Maret 2025
+8. Pelaksanaan UTBK: 23 – 30 April dan 2 – 3 Mei 2025
+9. Pengumuman Hasil Seleksi Jalur SNBT: 28 Mei 2025
+10. Masa Unduh Sertifikat UTBK: 3 Juni – 31 Juli 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>W1XCOM</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:03:45</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>200</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal snbp?
+###
+Answer:Salam Harmoni🙏
+Jadwal Seleksi Nasional Berbasis Prestasi (SNBP) 2025 adalah sebagai berikut:
+1. Pengumuman Kuota Sekolah: 28 Desember 2024
+2. Masa Sanggah: 28 Desember 2024 – 17 Januari 2025
+3. Registrasi Akun SNPMB Sekolah: 6 – 31 Januari 2025
+4. Pengisian PDSS oleh Sekolah: 6 – 31 Januari 2025
+5. Registrasi Akun SNPMB Siswa: 13 Januari – 18 Februari 2025
+6. Pendaftaran SNBP: 4 – 18 Februari 2025
+7. Pengumuman Hasil SNBP: 18 Maret 2025
+8. Masa Unduh Kartu Peserta SNBP: 4 Februari – 30 April 2025
+Jika ada pertanyaan lebih lanjut, silakan tanyakan!</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>K6TEFM</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:04:08</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>200</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal snbt?
+###
+Answer:Salam Harmoni🙏
+Jadwal Seleksi Nasional Berbasis Tes (SNBT) adalah sebagai berikut:
+1. Registrasi Akun Siswa: 13 Januari – 27 Maret 2025
+2. Pendaftaran UTBK dan SNBT: 11 – 27 Maret 2025
+3. Pelaksanaan UTBK: 23 April – 03 Mei 2025
+4. Pengumuman Hasil SNBT: 28 Mei 2025
+5. Masa Unduh Sertifikat UTBK: 03 Juni – 31 Juli 2025
+Setiap tahapan UTBK-SNBT dibuka dan ditutup pada pukul 15.00 WIB.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HT7BJR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-12-26 17:04:39</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>POST /chat</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>OK
+###
+Question:kapan jadwal smbjm?
+###
+Answer:Salam Harmoni🙏
+Jadwal seleksi mahasiswa baru jalur mandiri (SMBJM) Universitas Pendidikan Ganesha untuk tahun 2025 akan diinformasikan segera. Untuk informasi lebih lanjut, Anda dapat mengunjungi situs resmi Undiksha atau mengikuti pengumuman resmi dari pihak universitas.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
